--- a/Blood4Life/Sprint-3/UAT/PlanoUAT-Homol-v1.xlsx
+++ b/Blood4Life/Sprint-3/UAT/PlanoUAT-Homol-v1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f121773a5ae8ec2/Área de Trabalho/BANDTEC/Blood4Life/Blood4Life/Sprint-3/UAT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0E7391570FF3231FAA16CD81C11870886C4747DF" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E02F95C4-D4A6-455F-A916-4127564E8AC8}"/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12975" tabRatio="826"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Home" sheetId="6" r:id="rId1"/>
@@ -550,15 +556,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -633,161 +632,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="22"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,192 +687,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="21"/>
         <bgColor indexed="30"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1021,16 +702,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,65 +721,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,45 +735,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="23"/>
       </right>
@@ -1161,351 +744,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyBorder="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="false" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="false" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="false" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="false" applyProtection="false">
-      <alignment horizontal="right" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyBorder="false" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyProtection="false">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="top"/>
-      <protection locked="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyProtection="true">
-      <alignment vertical="center"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyProtection="true">
-      <alignment vertical="center"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyProtection="true">
-      <alignment vertical="center"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Card BL" xfId="12" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Card BR" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Card L" xfId="11" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Card R" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Card T" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Card TL" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Card TR" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Column Header" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="Card" xfId="2"/>
-    <cellStyle name="Card B" xfId="3"/>
-    <cellStyle name="Card BR" xfId="4"/>
-    <cellStyle name="Card R" xfId="5"/>
-    <cellStyle name="Card T" xfId="6"/>
-    <cellStyle name="Card TL" xfId="7"/>
-    <cellStyle name="Card TR" xfId="8"/>
-    <cellStyle name="Column Header" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="60% - Accent6" xfId="11" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="13" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="14" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="15" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="16" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="17" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="18" builtinId="45"/>
-    <cellStyle name="Card L" xfId="19"/>
-    <cellStyle name="40% - Accent4" xfId="20" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="21" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="22" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="23" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="26" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="27" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="28" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="29" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="30" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Bad" xfId="34" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="35" builtinId="42"/>
-    <cellStyle name="Total" xfId="36" builtinId="25"/>
-    <cellStyle name="Output" xfId="37" builtinId="21"/>
-    <cellStyle name="Currency" xfId="38" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Note" xfId="40" builtinId="10"/>
-    <cellStyle name="Input" xfId="41" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="42" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="43" builtinId="22"/>
-    <cellStyle name="Good" xfId="44" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="45" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="46" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="47" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="49" builtinId="50"/>
-    <cellStyle name="Title" xfId="50" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="51" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="52" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="54" builtinId="17"/>
-    <cellStyle name="Comma" xfId="55" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="57" builtinId="40"/>
-    <cellStyle name="Percent" xfId="58" builtinId="5"/>
-    <cellStyle name="Card BL" xfId="59"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1579,12 +958,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1600,13 +982,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="login"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="login">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1638,13 +1026,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="loginHospital"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="loginHospital">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1676,13 +1070,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="noticiaDoação"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="noticiaDoação">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1714,13 +1114,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="cadastroLogin"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="cadastroLogin">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1752,13 +1158,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="cadastroHospital"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="cadastroHospital">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1790,13 +1202,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="face"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="face">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1828,13 +1246,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="FACEBOOK"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="FACEBOOK">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1866,13 +1290,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="INSTAGEM"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="INSTAGEM">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1904,20 +1334,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="twITTER"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="twITTER">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8750300" y="13453110"/>
+          <a:off x="8997950" y="12668885"/>
           <a:ext cx="1880870" cy="835025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1942,13 +1378,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="doação de sangue"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="doação de sangue">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1969,7 +1411,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1985,13 +1427,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="dashboard"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="dashboard">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2023,13 +1471,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="homehome"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="homehome">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2050,7 +1504,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2066,13 +1520,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="login"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="login">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2104,13 +1564,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="login"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="login">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2131,7 +1597,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2147,13 +1613,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="cepcep"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="cepcep">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2185,13 +1657,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="cepcep"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="cepcep">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2212,7 +1690,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2228,13 +1706,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="cadastrocadastro"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="cadastrocadastro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2266,13 +1750,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="cadastrocadastro"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="cadastrocadastro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2410,7 +1900,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2431,9 +1921,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2454,7 +1944,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2524,7 +2014,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2550,7 +2040,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2573,36 +2063,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="41" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="35.7142857142857" style="1" customWidth="true"/>
-    <col min="3" max="3" width="38" style="1" customWidth="true"/>
-    <col min="4" max="4" width="33.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="5" width="32.4285714285714" style="3" customWidth="true"/>
-    <col min="6" max="6" width="25.5714285714286" style="1" customWidth="true"/>
-    <col min="7" max="7" width="20.8571428571429" style="1" customWidth="true"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="9" max="9" width="14.5714285714286" style="1" customWidth="true"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="true"/>
-    <col min="12" max="12" width="16.4285714285714" style="1" customWidth="true"/>
-    <col min="13" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:16" ht="16.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2618,7 +2108,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2626,44 +2116,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:16" ht="16.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="8" ht="17.25" spans="1:1">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="true" ht="39" spans="1:16">
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="32.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -2690,7 +2180,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -2715,7 +2205,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -2740,7 +2230,7 @@
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" s="2" customFormat="true" ht="107" customHeight="true" spans="1:16">
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="106.95" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2765,7 +2255,7 @@
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" s="2" customFormat="true" ht="90" customHeight="true" spans="1:16">
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="90" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
@@ -2790,7 +2280,7 @@
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
-    <row r="20" s="2" customFormat="true" ht="113" customHeight="true" spans="1:16">
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="112.95" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
@@ -2815,7 +2305,7 @@
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
     </row>
-    <row r="21" s="2" customFormat="true" ht="125" customHeight="true" spans="1:16">
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="124.95" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -2840,7 +2330,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
     </row>
-    <row r="22" s="2" customFormat="true" ht="110" customHeight="true" spans="1:16">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="109.95" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
@@ -2865,7 +2355,7 @@
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
     </row>
-    <row r="23" s="2" customFormat="true" ht="106" customHeight="true" spans="1:16">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="106.05" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>41</v>
       </c>
@@ -2890,7 +2380,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
     </row>
-    <row r="24" ht="106" customHeight="true" spans="1:7">
+    <row r="24" spans="1:16" ht="106.05" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>44</v>
       </c>
@@ -2911,16 +2401,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:1">
+    <row r="27" spans="1:16" ht="16.2">
       <c r="A27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
-  <printOptions horizontalCentered="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0" footer="0.0986111111111111"/>
-  <pageSetup paperSize="1" fitToHeight="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111094E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
@@ -2929,116 +2419,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="35.7142857142857" style="1" customWidth="true"/>
-    <col min="3" max="3" width="38" style="1" customWidth="true"/>
-    <col min="4" max="4" width="33.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="5" width="32.4285714285714" style="3" customWidth="true"/>
-    <col min="6" max="6" width="25.5714285714286" style="1" customWidth="true"/>
-    <col min="7" max="7" width="20.8571428571429" style="1" customWidth="true"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="9" max="9" width="14.5714285714286" style="1" customWidth="true"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="true"/>
-    <col min="12" max="12" width="16.4285714285714" style="1" customWidth="true"/>
-    <col min="13" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" spans="1:5">
+    <row r="1" spans="1:16" ht="16.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>44169</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="4" spans="1:16" ht="16.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="true" spans="1:7">
+    </row>
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="true" spans="5:5">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="true" spans="1:5">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="true" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="true" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="true" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="39" spans="1:16">
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="32.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -3060,15 +2526,12 @@
       <c r="G15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -3088,15 +2551,12 @@
       <c r="G16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -3116,15 +2576,12 @@
       <c r="G17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" s="2" customFormat="true" ht="107" customHeight="true" spans="1:16">
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="106.95" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -3144,15 +2601,12 @@
       <c r="G18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
     </row>
-    <row r="19" s="2" customFormat="true" ht="90" customHeight="true" spans="1:16">
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="90" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
@@ -3172,15 +2626,12 @@
       <c r="G19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
     </row>
-    <row r="20" s="2" customFormat="true" ht="113" customHeight="true" spans="1:16">
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="112.95" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
@@ -3200,15 +2651,12 @@
       <c r="G20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
     </row>
-    <row r="21" s="2" customFormat="true" ht="125" customHeight="true" spans="1:16">
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="124.95" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -3228,15 +2676,12 @@
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
     </row>
-    <row r="22" s="2" customFormat="true" ht="110" customHeight="true" spans="1:16">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="109.95" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
@@ -3256,15 +2701,12 @@
       <c r="G22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
     </row>
-    <row r="23" s="2" customFormat="true" ht="106" customHeight="true" spans="1:16">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="106.05" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>41</v>
       </c>
@@ -3289,7 +2731,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
     </row>
-    <row r="24" s="1" customFormat="true" ht="106" customHeight="true" spans="1:7">
+    <row r="24" spans="1:16" ht="106.05" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>44</v>
       </c>
@@ -3310,145 +2752,104 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="true" spans="5:5">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="true" spans="5:5">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="true" spans="1:5">
+    <row r="27" spans="1:16" ht="16.2">
       <c r="A27" s="10"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="true" spans="5:5">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="true" spans="5:5">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="true" spans="5:5">
-      <c r="E30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="35.7142857142857" style="1" customWidth="true"/>
-    <col min="3" max="3" width="38" style="1" customWidth="true"/>
-    <col min="4" max="4" width="33.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="5" width="32.4285714285714" style="3" customWidth="true"/>
-    <col min="6" max="6" width="25.5714285714286" style="1" customWidth="true"/>
-    <col min="7" max="7" width="20.8571428571429" style="1" customWidth="true"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="9" max="9" width="14.5714285714286" style="1" customWidth="true"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="true"/>
-    <col min="12" max="12" width="16.4285714285714" style="1" customWidth="true"/>
-    <col min="13" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" spans="1:5">
+    <row r="1" spans="1:16" ht="16.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>44169</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="4" spans="1:16" ht="16.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="true" spans="1:7">
+    </row>
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="true" spans="5:5">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="true" spans="1:5">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="true" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="true" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="true" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="39" spans="1:16">
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="32.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -3470,15 +2871,12 @@
       <c r="G15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -3498,15 +2896,12 @@
       <c r="G16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -3526,154 +2921,110 @@
       <c r="G17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" s="1" customFormat="true" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="true" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="true" spans="1:5">
+    <row r="20" spans="1:16" ht="16.2">
       <c r="A20" s="10"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="true" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="true" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="true" spans="5:5">
-      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="35.7142857142857" style="1" customWidth="true"/>
-    <col min="3" max="3" width="38" style="1" customWidth="true"/>
-    <col min="4" max="4" width="33.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="5" width="32.4285714285714" style="3" customWidth="true"/>
-    <col min="6" max="6" width="25.5714285714286" style="1" customWidth="true"/>
-    <col min="7" max="7" width="20.8571428571429" style="1" customWidth="true"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="9" max="9" width="14.5714285714286" style="1" customWidth="true"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="true"/>
-    <col min="12" max="12" width="16.4285714285714" style="1" customWidth="true"/>
-    <col min="13" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" spans="1:5">
+    <row r="1" spans="1:16" ht="16.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>44169</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="4" spans="1:16" ht="16.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="true" spans="1:7">
+    </row>
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="true" spans="5:5">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="true" spans="1:5">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="true" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="true" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="true" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="39" spans="1:16">
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="32.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -3695,15 +3046,12 @@
       <c r="G15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -3723,15 +3071,12 @@
       <c r="G16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -3751,178 +3096,110 @@
       <c r="G17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" s="1" customFormat="true" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="true" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="true" spans="1:5">
+    <row r="20" spans="1:16" ht="16.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="true" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="true" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="true" spans="5:5">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="true" spans="5:5">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="true" spans="5:5">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="true" spans="5:5">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="true" spans="5:5">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="true" spans="5:5">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="true" spans="5:5">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="true" spans="5:5">
-      <c r="E30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="35.7142857142857" style="1" customWidth="true"/>
-    <col min="3" max="3" width="38" style="1" customWidth="true"/>
-    <col min="4" max="4" width="33.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="5" width="32.4285714285714" style="3" customWidth="true"/>
-    <col min="6" max="6" width="25.5714285714286" style="1" customWidth="true"/>
-    <col min="7" max="7" width="20.8571428571429" style="1" customWidth="true"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="9" max="9" width="14.5714285714286" style="1" customWidth="true"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="true"/>
-    <col min="12" max="12" width="16.4285714285714" style="1" customWidth="true"/>
-    <col min="13" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" spans="1:5">
+    <row r="1" spans="1:16" ht="16.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>44169</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="4" spans="1:16" ht="16.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="true" spans="1:7">
+    </row>
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="true" spans="5:5">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="true" spans="1:5">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="true" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="true" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="true" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="39" spans="1:16">
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="32.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -3944,15 +3221,12 @@
       <c r="G15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -3972,15 +3246,12 @@
       <c r="G16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -4000,154 +3271,110 @@
       <c r="G17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" s="1" customFormat="true" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="true" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="true" spans="1:5">
+    <row r="20" spans="1:16" ht="16.2">
       <c r="A20" s="10"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="true" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="true" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="true" spans="5:5">
-      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7142857142857" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" style="1" customWidth="true"/>
-    <col min="2" max="2" width="35.7142857142857" style="1" customWidth="true"/>
-    <col min="3" max="3" width="38" style="1" customWidth="true"/>
-    <col min="4" max="4" width="33.4285714285714" style="1" customWidth="true"/>
-    <col min="5" max="5" width="32.4285714285714" style="3" customWidth="true"/>
-    <col min="6" max="6" width="25.5714285714286" style="1" customWidth="true"/>
-    <col min="7" max="7" width="20.8571428571429" style="1" customWidth="true"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="9" max="9" width="14.5714285714286" style="1" customWidth="true"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="true"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="true"/>
-    <col min="12" max="12" width="16.4285714285714" style="1" customWidth="true"/>
-    <col min="13" max="16384" width="11.7142857142857" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" spans="1:5">
+    <row r="1" spans="1:16" ht="16.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>44169</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="4" spans="1:16" ht="16.2">
       <c r="A4" s="4"/>
       <c r="B4" s="7"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="true" spans="1:7">
+    </row>
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="true" spans="5:5">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="true" spans="1:5">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="true" spans="1:5">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="true" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="true" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="true" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="39" spans="1:16">
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="32.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -4174,7 +3401,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -4199,7 +3426,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" s="2" customFormat="true" ht="94" customHeight="true" spans="1:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="94.05" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -4224,52 +3451,14 @@
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" s="1" customFormat="true" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="true" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="true" spans="1:5">
+    <row r="20" spans="1:16" ht="16.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="true" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="true" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="true" spans="5:5">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="true" spans="5:5">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="true" spans="5:5">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="true" spans="5:5">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="true" spans="5:5">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="true" spans="5:5">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="true" spans="5:5">
-      <c r="E29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>